--- a/code_generate_figures/save_data/Maxquant_DDA/Maxquant_DDAavg_rankings.xlsx
+++ b/code_generate_figures/save_data/Maxquant_DDA/Maxquant_DDAavg_rankings.xlsx
@@ -93,18 +93,18 @@
     <t xml:space="preserve">top0</t>
   </si>
   <si>
+    <t xml:space="preserve">DEP</t>
+  </si>
+  <si>
     <t xml:space="preserve">limma</t>
   </si>
   <si>
+    <t xml:space="preserve">DEqMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">proDA</t>
   </si>
   <si>
-    <t xml:space="preserve">DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEqMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
@@ -147,51 +147,51 @@
     <t xml:space="preserve">Impseq</t>
   </si>
   <si>
+    <t xml:space="preserve">blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MinProb</t>
   </si>
   <si>
-    <t xml:space="preserve">GMS</t>
+    <t xml:space="preserve">Impseqrob</t>
   </si>
   <si>
     <t xml:space="preserve">bpca</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">knn</t>
   </si>
   <si>
-    <t xml:space="preserve">blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MinDet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">QRILC</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impseqrob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MinDet</t>
-  </si>
-  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
+    <t xml:space="preserve">mice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">nbavg</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mice</t>
-  </si>
-  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
@@ -222,13 +222,13 @@
     <t xml:space="preserve">div.median</t>
   </si>
   <si>
+    <t xml:space="preserve">max</t>
+  </si>
+  <si>
     <t xml:space="preserve">vsn</t>
   </si>
   <si>
     <t xml:space="preserve">center.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max</t>
   </si>
   <si>
     <t xml:space="preserve">div.mean</t>
@@ -945,22 +945,22 @@
         <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3">
@@ -989,31 +989,31 @@
         <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>0.428571428571429</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3" t="n">
-        <v>0.571428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0.285714285714286</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1051,22 +1051,22 @@
         <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -1086,10 +1086,10 @@
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>0.285714285714286</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -1104,22 +1104,22 @@
         <v>28</v>
       </c>
       <c r="L5" t="n">
-        <v>0.714285714285714</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
       </c>
       <c r="O5" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="6">
@@ -1192,19 +1192,19 @@
         <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.428571428571429</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>0.714285714285714</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
         <v>32</v>
@@ -1225,7 +1225,7 @@
         <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
@@ -1671,13 +1671,13 @@
         <v>40</v>
       </c>
       <c r="O2" t="n">
-        <v>0.733333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -1777,13 +1777,13 @@
         <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -1803,40 +1803,40 @@
         <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.733333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>0.666666666666667</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="n">
-        <v>0.733333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>0.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.8</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="6">
@@ -1856,28 +1856,28 @@
         <v>44</v>
       </c>
       <c r="F6" t="n">
-        <v>0.466666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
@@ -1889,7 +1889,7 @@
         <v>13</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="7">
@@ -1909,19 +1909,19 @@
         <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>0.866666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
         <v>45</v>
@@ -1936,13 +1936,13 @@
         <v>45</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="8">
@@ -1962,28 +1962,28 @@
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8" t="n">
-        <v>0.466666666666667</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="n">
-        <v>0.466666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
         <v>46</v>
@@ -2015,40 +2015,40 @@
         <v>47</v>
       </c>
       <c r="F9" t="n">
-        <v>0.133333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
         <v>47</v>
       </c>
       <c r="I9" t="n">
-        <v>0.133333333333333</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
         <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="P9" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2068,28 +2068,28 @@
         <v>49</v>
       </c>
       <c r="F10" t="n">
-        <v>0.266666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
         <v>49</v>
       </c>
       <c r="I10" t="n">
-        <v>0.266666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>49</v>
       </c>
       <c r="L10" t="n">
-        <v>0.333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="M10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
@@ -2101,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="Q10" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="11">
@@ -2121,40 +2121,40 @@
         <v>51</v>
       </c>
       <c r="F11" t="n">
-        <v>0.333333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
       </c>
       <c r="I11" t="n">
-        <v>0.533333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
         <v>51</v>
       </c>
       <c r="L11" t="n">
-        <v>0.266666666666667</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N11" t="s">
         <v>51</v>
       </c>
       <c r="O11" t="n">
-        <v>0.266666666666667</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="P11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12">
@@ -2174,40 +2174,40 @@
         <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>0.666666666666667</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>53</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N12" t="s">
         <v>53</v>
       </c>
       <c r="O12" t="n">
-        <v>0.533333333333333</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="P12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.8</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="13">
@@ -2227,40 +2227,40 @@
         <v>55</v>
       </c>
       <c r="F13" t="n">
-        <v>0.533333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>55</v>
       </c>
       <c r="I13" t="n">
-        <v>0.333333333333333</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K13" t="s">
         <v>55</v>
       </c>
       <c r="L13" t="n">
-        <v>0.866666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N13" t="s">
         <v>55</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="14">
@@ -2280,40 +2280,40 @@
         <v>57</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
       <c r="I14" t="n">
-        <v>0.733333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
         <v>57</v>
       </c>
       <c r="L14" t="n">
-        <v>0.533333333333333</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>57</v>
       </c>
       <c r="O14" t="n">
-        <v>0.866666666666667</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2333,10 @@
         <v>59</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -2351,10 +2351,10 @@
         <v>59</v>
       </c>
       <c r="L15" t="n">
-        <v>0.133333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
         <v>59</v>
@@ -2366,7 +2366,7 @@
         <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -2413,13 +2413,13 @@
         <v>61</v>
       </c>
       <c r="O16" t="n">
-        <v>0.666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="17">
@@ -2653,7 +2653,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
         <v>0.846153846153846</v>
@@ -2662,16 +2662,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>0.769230769230769</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I4" t="n">
         <v>0.769230769230769</v>
@@ -2680,25 +2680,25 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="L4" t="n">
-        <v>0.846153846153846</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="O4" t="n">
-        <v>0.769230769230769</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="5">
@@ -2706,7 +2706,7 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
         <v>0.769230769230769</v>
@@ -2715,16 +2715,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F5" t="n">
-        <v>0.846153846153846</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I5" t="n">
         <v>0.846153846153846</v>
@@ -2733,25 +2733,25 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="L5" t="n">
-        <v>0.615384615384615</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="O5" t="n">
-        <v>0.615384615384615</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -2798,13 +2798,13 @@
         <v>67</v>
       </c>
       <c r="O6" t="n">
-        <v>0.230769230769231</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="P6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="7">
@@ -2824,40 +2824,40 @@
         <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>0.461538461538462</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>68</v>
       </c>
       <c r="I7" t="n">
-        <v>0.384615384615385</v>
+        <v>0.615384615384615</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
         <v>68</v>
       </c>
       <c r="L7" t="n">
-        <v>0.307692307692308</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N7" t="s">
         <v>68</v>
       </c>
       <c r="O7" t="n">
-        <v>0.307692307692308</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="8">
@@ -2877,40 +2877,40 @@
         <v>69</v>
       </c>
       <c r="F8" t="n">
-        <v>0.538461538461538</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>0.538461538461538</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>69</v>
       </c>
       <c r="L8" t="n">
-        <v>0.769230769230769</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N8" t="s">
         <v>69</v>
       </c>
       <c r="O8" t="n">
-        <v>0.692307692307692</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="9">
@@ -2930,40 +2930,40 @@
         <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>0.615384615384615</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>70</v>
       </c>
       <c r="I9" t="n">
-        <v>0.615384615384615</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
         <v>70</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
         <v>70</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="P9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10">
@@ -2992,10 +2992,10 @@
         <v>71</v>
       </c>
       <c r="I10" t="n">
-        <v>0.461538461538462</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" t="s">
         <v>71</v>
@@ -3010,13 +3010,13 @@
         <v>71</v>
       </c>
       <c r="O10" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="11">
@@ -3036,10 +3036,10 @@
         <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>0.153846153846154</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>72</v>
@@ -3069,7 +3069,7 @@
         <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="12">
@@ -3107,10 +3107,10 @@
         <v>73</v>
       </c>
       <c r="L12" t="n">
-        <v>0.692307692307692</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
         <v>73</v>
@@ -3122,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="13">
@@ -3195,10 +3195,10 @@
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="G14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
         <v>75</v>
@@ -3228,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="15">
